--- a/deaths peds.xlsx
+++ b/deaths peds.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timwiemken/Library/Mobile Documents/com~apple~CloudDocs/Work/Pfizer/COVID pediatric case count/count github/covid-agegroups/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DA8A6B7-26DF-7F46-AB92-5919C309FA97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF726DE2-8D24-B54F-974C-DE8F8827C84C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1200" yWindow="500" windowWidth="18600" windowHeight="21100" xr2:uid="{1F45704D-1207-B144-AA11-BC463B2BA351}"/>
   </bookViews>
@@ -402,7 +402,7 @@
   <dimension ref="A1:D399"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="B103" sqref="B103"/>
+      <selection activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1560,7 +1560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <f t="shared" si="1"/>
         <v>44499</v>
@@ -1572,7 +1572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <f t="shared" si="1"/>
         <v>44506</v>
@@ -1584,7 +1584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <f t="shared" si="1"/>
         <v>44513</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <f t="shared" si="1"/>
         <v>44520</v>
@@ -1608,7 +1608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <f t="shared" si="1"/>
         <v>44527</v>
@@ -1620,37 +1620,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B103">
+        <f>SUM(B2:B101)</f>
+        <v>154</v>
+      </c>
+      <c r="C103">
+        <f>SUM(C2:C101)</f>
+        <v>70</v>
+      </c>
+      <c r="D103">
+        <f>SUM(B103:C103)</f>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
